--- a/biology/Médecine/Tympanogramme/Tympanogramme.xlsx
+++ b/biology/Médecine/Tympanogramme/Tympanogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tympanogramme, réalisé lors de la tympanométrie, est un graphe représentant l'impédance de l'oreille moyenne. 
 Il est obtenu en faisant varier la pression dans le conduit auditif, et permet de détecter l'immobilité du tympan, ou de la chaine ossiculaire (marteau, enclume, étrier) ou l'absence de réflexe stapédien (contraction du muscle du stapes ou étrier).
